--- a/database/industries/ghaza/gheshasfa/cost/quarterly.xlsx
+++ b/database/industries/ghaza/gheshasfa/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshasfa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshasfa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40394D4-50AE-4043-97E8-1ADCE2D70A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F01E8F-D964-426E-AF43-C5BAC7D4D0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -728,16 +743,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I160"/>
+  <dimension ref="B1:N160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -746,8 +761,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,8 +778,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -770,8 +795,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -780,8 +810,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -792,8 +827,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -804,8 +844,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -814,8 +859,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -836,8 +886,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -846,98 +911,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>2342115</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2902394</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3447543</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3297330</v>
+      </c>
+      <c r="I10" s="9">
+        <v>3517349</v>
+      </c>
+      <c r="J10" s="9">
         <v>4369132</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>4578583</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>5722183</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>6452406</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>6837323</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>130187</v>
+      </c>
+      <c r="F11" s="11">
+        <v>124390</v>
+      </c>
+      <c r="G11" s="11">
+        <v>168498</v>
+      </c>
+      <c r="H11" s="11">
+        <v>200990</v>
+      </c>
+      <c r="I11" s="11">
+        <v>183326</v>
+      </c>
+      <c r="J11" s="11">
         <v>188477</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>193607</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>292717</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>259612</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>276223</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>184621</v>
+      </c>
+      <c r="F12" s="9">
+        <v>186115</v>
+      </c>
+      <c r="G12" s="9">
+        <v>283460</v>
+      </c>
+      <c r="H12" s="9">
+        <v>265581</v>
+      </c>
+      <c r="I12" s="9">
+        <v>282067</v>
+      </c>
+      <c r="J12" s="9">
         <v>294302</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>378955</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>393252</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>384958</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>412013</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>2656923</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3212899</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3899501</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3763901</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3982742</v>
+      </c>
+      <c r="J13" s="13">
         <v>4851911</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>5151145</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>6408152</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>7096976</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>7525559</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -956,32 +1086,62 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>2656923</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3212899</v>
+      </c>
+      <c r="G15" s="13">
+        <v>3899501</v>
+      </c>
+      <c r="H15" s="13">
+        <v>3763901</v>
+      </c>
+      <c r="I15" s="13">
+        <v>3982742</v>
+      </c>
+      <c r="J15" s="13">
         <v>4851911</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>5151145</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>6408152</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>7096976</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>7525559</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1000,10 +1160,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1022,32 +1197,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>2656923</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3212899</v>
+      </c>
+      <c r="G18" s="15">
+        <v>3899501</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3763901</v>
+      </c>
+      <c r="I18" s="15">
+        <v>3982742</v>
+      </c>
+      <c r="J18" s="15">
         <v>4851911</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>5151145</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>6408152</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>7096976</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>7525559</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1055,107 +1260,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>639226</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>353444</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>1591768</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>360570</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>262582</v>
+      </c>
+      <c r="F20" s="9">
+        <v>36960</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-151794</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-468843</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-126383</v>
+      </c>
+      <c r="J20" s="9">
         <v>-353444</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-1591768</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-1691754</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-360570</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-951563</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>2919505</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3249859</v>
+      </c>
+      <c r="G21" s="13">
+        <v>3747707</v>
+      </c>
+      <c r="H21" s="13">
+        <v>3934284</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3856359</v>
+      </c>
+      <c r="J21" s="13">
         <v>4498467</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>4508047</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>6308166</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>6736406</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>8626320</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>3871</v>
+      </c>
+      <c r="F22" s="9">
+        <v>73</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2301</v>
+      </c>
+      <c r="H22" s="9">
+        <v>4458</v>
+      </c>
+      <c r="I22" s="9">
+        <v>4733</v>
+      </c>
+      <c r="J22" s="9">
         <v>4711</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>42356</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
         <v>1216</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>3659</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>2923376</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3249932</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3750008</v>
+      </c>
+      <c r="H23" s="13">
+        <v>3938742</v>
+      </c>
+      <c r="I23" s="13">
+        <v>3861092</v>
+      </c>
+      <c r="J23" s="13">
         <v>4503178</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>4550403</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>6308166</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>6737622</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>8629979</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1164,8 +1444,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1174,8 +1459,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1184,10 +1474,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1206,8 +1501,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1216,68 +1526,103 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>883</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1226</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1907</v>
+      </c>
+      <c r="J29" s="9">
         <v>550</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9">
         <v>884</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>769</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>1</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11">
+        <v>1</v>
+      </c>
+      <c r="M30" s="11">
+        <v>1</v>
+      </c>
+      <c r="N30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -1288,15 +1633,30 @@
       <c r="I31" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="F32" s="13">
         <v>0</v>
@@ -1305,13 +1665,28 @@
         <v>886</v>
       </c>
       <c r="H32" s="13">
+        <v>1227</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1909</v>
+      </c>
+      <c r="J32" s="13">
+        <v>552</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <v>886</v>
+      </c>
+      <c r="M32" s="13">
         <v>771</v>
       </c>
-      <c r="I32" s="13">
+      <c r="N32" s="13">
         <v>620</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1320,8 +1695,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1330,8 +1710,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1340,10 +1725,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1362,8 +1752,23 @@
       <c r="I36" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1372,61 +1777,96 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
+        <v>163826</v>
+      </c>
+      <c r="G38" s="9">
+        <v>55085</v>
+      </c>
+      <c r="H38" s="9">
+        <v>54677</v>
+      </c>
+      <c r="I38" s="9">
+        <v>46246</v>
+      </c>
+      <c r="J38" s="9">
         <v>51190</v>
       </c>
-      <c r="F38" s="9">
+      <c r="K38" s="9">
         <v>55620</v>
       </c>
-      <c r="G38" s="9">
+      <c r="L38" s="9">
         <v>56626</v>
       </c>
-      <c r="H38" s="9">
+      <c r="M38" s="9">
         <v>44504</v>
       </c>
-      <c r="I38" s="9">
+      <c r="N38" s="9">
         <v>47649</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
         <v>1</v>
       </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
       <c r="I39" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
@@ -1436,38 +1876,68 @@
         <v>0</v>
       </c>
       <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
         <v>1</v>
       </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>163827</v>
+      </c>
+      <c r="G41" s="13">
+        <v>55085</v>
+      </c>
+      <c r="H41" s="13">
+        <v>54678</v>
+      </c>
+      <c r="I41" s="13">
+        <v>46247</v>
+      </c>
+      <c r="J41" s="13">
         <v>51190</v>
       </c>
-      <c r="F41" s="13">
+      <c r="K41" s="13">
         <v>55620</v>
       </c>
-      <c r="G41" s="13">
+      <c r="L41" s="13">
         <v>56628</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>44504</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>47649</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1476,8 +1946,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1486,8 +1961,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1496,10 +1976,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1518,8 +2003,23 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1528,37 +2028,57 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>163878</v>
+      </c>
+      <c r="G47" s="9">
+        <v>54742</v>
+      </c>
+      <c r="H47" s="9">
+        <v>53996</v>
+      </c>
+      <c r="I47" s="9">
+        <v>47603</v>
+      </c>
+      <c r="J47" s="9">
         <v>50890</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>55585</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>56741</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>44655</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>47778</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
@@ -1568,21 +2088,36 @@
         <v>0</v>
       </c>
       <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
         <v>1</v>
       </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
@@ -1592,38 +2127,68 @@
         <v>0</v>
       </c>
       <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
         <v>1</v>
       </c>
-      <c r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>1</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
+        <v>0</v>
+      </c>
+      <c r="F50" s="13">
+        <v>163878</v>
+      </c>
+      <c r="G50" s="13">
+        <v>54742</v>
+      </c>
+      <c r="H50" s="13">
+        <v>53996</v>
+      </c>
+      <c r="I50" s="13">
+        <v>47605</v>
+      </c>
+      <c r="J50" s="13">
         <v>50890</v>
       </c>
-      <c r="F50" s="13">
+      <c r="K50" s="13">
         <v>55585</v>
       </c>
-      <c r="G50" s="13">
+      <c r="L50" s="13">
         <v>56743</v>
       </c>
-      <c r="H50" s="13">
+      <c r="M50" s="13">
         <v>44655</v>
       </c>
-      <c r="I50" s="13">
+      <c r="N50" s="13">
         <v>47778</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1632,8 +2197,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1642,8 +2212,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1652,10 +2227,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1674,8 +2254,23 @@
       <c r="I54" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1684,65 +2279,100 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>883</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1226</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1907</v>
+      </c>
+      <c r="I56" s="9">
+        <v>550</v>
+      </c>
+      <c r="J56" s="9">
         <v>850</v>
       </c>
-      <c r="F56" s="9">
+      <c r="K56" s="9">
         <v>885</v>
       </c>
-      <c r="G56" s="9">
+      <c r="L56" s="9">
         <v>769</v>
       </c>
-      <c r="H56" s="9">
+      <c r="M56" s="9">
         <v>618</v>
       </c>
-      <c r="I56" s="9">
+      <c r="N56" s="9">
         <v>489</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="11">
         <v>1</v>
       </c>
       <c r="I57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="11">
+        <v>1</v>
+      </c>
+      <c r="K57" s="11">
+        <v>1</v>
+      </c>
+      <c r="L57" s="11">
+        <v>1</v>
+      </c>
+      <c r="M57" s="11">
+        <v>1</v>
+      </c>
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
@@ -1756,30 +2386,60 @@
       <c r="I58" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="9">
+        <v>1</v>
+      </c>
+      <c r="K58" s="9">
+        <v>1</v>
+      </c>
+      <c r="L58" s="9">
+        <v>1</v>
+      </c>
+      <c r="M58" s="9">
+        <v>1</v>
+      </c>
+      <c r="N58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
+        <v>886</v>
+      </c>
+      <c r="G59" s="13">
+        <v>1229</v>
+      </c>
+      <c r="H59" s="13">
+        <v>1909</v>
+      </c>
+      <c r="I59" s="13">
+        <v>552</v>
+      </c>
+      <c r="J59" s="13">
         <v>852</v>
       </c>
-      <c r="F59" s="13">
+      <c r="K59" s="13">
         <v>887</v>
       </c>
-      <c r="G59" s="13">
+      <c r="L59" s="13">
         <v>771</v>
       </c>
-      <c r="H59" s="13">
+      <c r="M59" s="13">
         <v>620</v>
       </c>
-      <c r="I59" s="13">
+      <c r="N59" s="13">
         <v>490</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1788,8 +2448,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1798,8 +2463,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1808,10 +2478,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1830,8 +2505,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1840,102 +2530,167 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>2806</v>
+      </c>
+      <c r="F65" s="9">
+        <v>43124</v>
+      </c>
+      <c r="G65" s="9">
+        <v>39890</v>
+      </c>
+      <c r="H65" s="9">
+        <v>59614</v>
+      </c>
+      <c r="I65" s="9">
+        <v>82841</v>
+      </c>
+      <c r="J65" s="9">
         <v>38916</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="9">
+      <c r="K65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="9">
         <v>70409</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>86464</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>85758</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>227506</v>
+      </c>
+      <c r="F66" s="11">
+        <v>274933</v>
+      </c>
+      <c r="G66" s="11">
+        <v>330287</v>
+      </c>
+      <c r="H66" s="11">
+        <v>601917</v>
+      </c>
+      <c r="I66" s="11">
+        <v>446442</v>
+      </c>
+      <c r="J66" s="11">
         <v>374028</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="11">
+      <c r="K66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="11">
         <v>648625</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>519094</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>531391</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>77084</v>
+      </c>
+      <c r="F67" s="9">
+        <v>113252</v>
+      </c>
+      <c r="G67" s="9">
+        <v>160282</v>
+      </c>
+      <c r="H67" s="9">
+        <v>246465</v>
+      </c>
+      <c r="I67" s="9">
+        <v>217435</v>
+      </c>
+      <c r="J67" s="9">
         <v>167175</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="9">
+      <c r="K67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="9">
         <v>164387</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>132999</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>106007</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>307396</v>
+      </c>
+      <c r="F68" s="13">
+        <v>431309</v>
+      </c>
+      <c r="G68" s="13">
+        <v>530459</v>
+      </c>
+      <c r="H68" s="13">
+        <v>907996</v>
+      </c>
+      <c r="I68" s="13">
+        <v>746718</v>
+      </c>
+      <c r="J68" s="13">
         <v>580119</v>
       </c>
-      <c r="F68" s="13">
-        <v>0</v>
-      </c>
-      <c r="G68" s="13">
+      <c r="K68" s="13">
+        <v>0</v>
+      </c>
+      <c r="L68" s="13">
         <v>883421</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>738557</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>723156</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1944,8 +2699,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1954,8 +2714,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1964,10 +2729,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1986,8 +2756,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1996,102 +2781,167 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
+        <v>1907277</v>
+      </c>
+      <c r="F74" s="9">
+        <v>2315487</v>
+      </c>
+      <c r="G74" s="9">
+        <v>2721178</v>
+      </c>
+      <c r="H74" s="9">
+        <v>2634531</v>
+      </c>
+      <c r="I74" s="9">
+        <v>2792831</v>
+      </c>
+      <c r="J74" s="9">
         <v>3398552</v>
       </c>
-      <c r="F74" s="9">
+      <c r="K74" s="9">
         <v>3746174</v>
       </c>
-      <c r="G74" s="9">
+      <c r="L74" s="9">
         <v>4885461</v>
       </c>
-      <c r="H74" s="9">
+      <c r="M74" s="9">
         <v>5384316</v>
       </c>
-      <c r="I74" s="9">
+      <c r="N74" s="9">
         <v>6366688</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>331056</v>
+      </c>
+      <c r="F75" s="11">
+        <v>422286</v>
+      </c>
+      <c r="G75" s="11">
+        <v>717360</v>
+      </c>
+      <c r="H75" s="11">
+        <v>296357</v>
+      </c>
+      <c r="I75" s="11">
+        <v>453713</v>
+      </c>
+      <c r="J75" s="11">
         <v>670232</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>794957</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>449035</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>603724</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>616292</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>227695</v>
+      </c>
+      <c r="F76" s="9">
+        <v>263771</v>
+      </c>
+      <c r="G76" s="9">
+        <v>386542</v>
+      </c>
+      <c r="H76" s="9">
+        <v>205164</v>
+      </c>
+      <c r="I76" s="9">
+        <v>104206</v>
+      </c>
+      <c r="J76" s="9">
         <v>335633</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>305478</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>242823</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>448966</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>-117227</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>2466028</v>
+      </c>
+      <c r="F77" s="13">
+        <v>3001544</v>
+      </c>
+      <c r="G77" s="13">
+        <v>3825080</v>
+      </c>
+      <c r="H77" s="13">
+        <v>3136052</v>
+      </c>
+      <c r="I77" s="13">
+        <v>3350750</v>
+      </c>
+      <c r="J77" s="13">
         <v>4404417</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>4846609</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>5577319</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>6437006</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>6865753</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2100,8 +2950,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2110,8 +2965,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2120,10 +2980,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2142,8 +3007,23 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2152,102 +3032,167 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>1866959</v>
+      </c>
+      <c r="F83" s="9">
+        <v>2318721</v>
+      </c>
+      <c r="G83" s="9">
+        <v>2701454</v>
+      </c>
+      <c r="H83" s="9">
+        <v>2611304</v>
+      </c>
+      <c r="I83" s="9">
+        <v>2836756</v>
+      </c>
+      <c r="J83" s="9">
         <v>3378226</v>
       </c>
-      <c r="F83" s="9">
+      <c r="K83" s="9">
         <v>3735007</v>
       </c>
-      <c r="G83" s="9">
+      <c r="L83" s="9">
         <v>4869406</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>5385022</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>6366108</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>283629</v>
+      </c>
+      <c r="F84" s="11">
+        <v>366932</v>
+      </c>
+      <c r="G84" s="11">
+        <v>445730</v>
+      </c>
+      <c r="H84" s="11">
+        <v>451832</v>
+      </c>
+      <c r="I84" s="11">
+        <v>526127</v>
+      </c>
+      <c r="J84" s="11">
         <v>626854</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>563729</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>578566</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>591427</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>635831</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>191527</v>
+      </c>
+      <c r="F85" s="9">
+        <v>216741</v>
+      </c>
+      <c r="G85" s="9">
+        <v>300359</v>
+      </c>
+      <c r="H85" s="9">
+        <v>234194</v>
+      </c>
+      <c r="I85" s="9">
+        <v>154466</v>
+      </c>
+      <c r="J85" s="9">
         <v>364052</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>279847</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>274211</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>475957</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>-164616</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>2342115</v>
+      </c>
+      <c r="F86" s="13">
+        <v>2902394</v>
+      </c>
+      <c r="G86" s="13">
+        <v>3447543</v>
+      </c>
+      <c r="H86" s="13">
+        <v>3297330</v>
+      </c>
+      <c r="I86" s="13">
+        <v>3517349</v>
+      </c>
+      <c r="J86" s="13">
         <v>4369132</v>
       </c>
-      <c r="F86" s="13">
+      <c r="K86" s="13">
         <v>4578583</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>5722183</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>6452406</v>
       </c>
-      <c r="I86" s="13">
+      <c r="N86" s="13">
         <v>6837323</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2256,8 +3201,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2266,8 +3216,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2276,10 +3231,15 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2298,8 +3258,23 @@
       <c r="I90" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2308,102 +3283,167 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
+        <v>43124</v>
+      </c>
+      <c r="F92" s="9">
+        <v>39890</v>
+      </c>
+      <c r="G92" s="9">
+        <v>59614</v>
+      </c>
+      <c r="H92" s="9">
+        <v>82841</v>
+      </c>
+      <c r="I92" s="9">
+        <v>38916</v>
+      </c>
+      <c r="J92" s="9">
         <v>59242</v>
       </c>
-      <c r="F92" s="9">
+      <c r="K92" s="9">
         <v>70409</v>
       </c>
-      <c r="G92" s="9">
+      <c r="L92" s="9">
         <v>86464</v>
       </c>
-      <c r="H92" s="9">
+      <c r="M92" s="9">
         <v>85758</v>
       </c>
-      <c r="I92" s="9">
+      <c r="N92" s="9">
         <v>86338</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>274933</v>
+      </c>
+      <c r="F93" s="11">
+        <v>330287</v>
+      </c>
+      <c r="G93" s="11">
+        <v>601917</v>
+      </c>
+      <c r="H93" s="11">
+        <v>446442</v>
+      </c>
+      <c r="I93" s="11">
+        <v>374028</v>
+      </c>
+      <c r="J93" s="11">
         <v>417397</v>
       </c>
-      <c r="F93" s="11">
+      <c r="K93" s="11">
         <v>648625</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>519094</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>531391</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>511852</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
+        <v>113252</v>
+      </c>
+      <c r="F94" s="9">
+        <v>160282</v>
+      </c>
+      <c r="G94" s="9">
+        <v>246465</v>
+      </c>
+      <c r="H94" s="9">
+        <v>217435</v>
+      </c>
+      <c r="I94" s="9">
+        <v>167175</v>
+      </c>
+      <c r="J94" s="9">
         <v>138756</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K94" s="9">
         <v>164387</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>132999</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>106007</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>153396</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>431309</v>
+      </c>
+      <c r="F95" s="13">
+        <v>530459</v>
+      </c>
+      <c r="G95" s="13">
+        <v>907996</v>
+      </c>
+      <c r="H95" s="13">
+        <v>746718</v>
+      </c>
+      <c r="I95" s="13">
+        <v>580119</v>
+      </c>
+      <c r="J95" s="13">
         <v>615395</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>883421</v>
       </c>
-      <c r="G95" s="13">
+      <c r="L95" s="13">
         <v>738557</v>
       </c>
-      <c r="H95" s="13">
+      <c r="M95" s="13">
         <v>723156</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>751586</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2412,8 +3452,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2422,8 +3467,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2432,10 +3482,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2454,8 +3509,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2464,80 +3534,130 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9">
+      <c r="E101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="9">
+        <v>45175538</v>
+      </c>
+      <c r="H101" s="9">
+        <v>48624796</v>
+      </c>
+      <c r="I101" s="9">
+        <v>43440482</v>
+      </c>
+      <c r="J101" s="9">
         <v>70756364</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>69696471</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>79648190</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>112436931</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>138766990</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11">
+      <c r="E102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="11">
+        <v>165143500000</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="11">
+        <v>446442000000</v>
+      </c>
+      <c r="J102" s="11">
         <v>374028000000</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>417397000000</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>648625000000</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>519094000000</v>
       </c>
-      <c r="I102" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N102" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9">
+      <c r="E103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="9">
+        <v>160282000000</v>
+      </c>
+      <c r="H103" s="9">
+        <v>246465000000</v>
+      </c>
+      <c r="I103" s="9">
+        <v>217435000000</v>
+      </c>
+      <c r="J103" s="9">
         <v>167175000000</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>138756000000</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>164387000000</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>132999000000</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>106007000000</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2546,8 +3666,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2556,8 +3681,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2566,10 +3696,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2588,8 +3723,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2598,80 +3748,130 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9">
+      <c r="E109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="9">
+        <v>14133819</v>
+      </c>
+      <c r="G109" s="9">
+        <v>49399619</v>
+      </c>
+      <c r="H109" s="9">
+        <v>48183532</v>
+      </c>
+      <c r="I109" s="9">
+        <v>60390758</v>
+      </c>
+      <c r="J109" s="9">
         <v>66390936</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>67353003</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>86275933</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>120984990</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>133616403</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="11">
+        <v>31</v>
+      </c>
+      <c r="F110" s="11">
+        <v>422286000000</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="11">
+        <v>296357000000</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="11">
         <v>449035000000</v>
       </c>
-      <c r="H110" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I110" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M110" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" s="9">
+        <v>31</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" s="9">
+        <v>104206000000</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L111" s="9">
         <v>242823000000</v>
       </c>
-      <c r="H111" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2680,8 +3880,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2690,8 +3895,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2700,10 +3910,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2722,8 +3937,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2732,80 +3962,130 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9">
+      <c r="E117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="9">
+        <v>14149068</v>
+      </c>
+      <c r="G117" s="9">
+        <v>49348836</v>
+      </c>
+      <c r="H117" s="9">
+        <v>48361064</v>
+      </c>
+      <c r="I117" s="9">
+        <v>59591958</v>
+      </c>
+      <c r="J117" s="9">
         <v>66382904</v>
       </c>
-      <c r="F117" s="9">
+      <c r="K117" s="9">
         <v>67194513</v>
       </c>
-      <c r="G117" s="9">
+      <c r="L117" s="9">
         <v>85818121</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>120591692</v>
       </c>
-      <c r="I117" s="9">
+      <c r="N117" s="9">
         <v>133243501</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" s="11">
+        <v>31</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="11">
+        <v>526127000000</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" s="11">
         <v>578566000000</v>
       </c>
-      <c r="H118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="9">
+        <v>31</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" s="9">
+        <v>154466000000</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="9">
         <v>274211000000</v>
       </c>
-      <c r="H119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2814,8 +4094,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2824,8 +4109,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2834,10 +4124,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -2856,8 +4151,23 @@
       <c r="I123" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2866,80 +4176,130 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9">
+      <c r="E125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="9">
+        <v>43440482</v>
+      </c>
+      <c r="I125" s="9">
+        <v>70756364</v>
+      </c>
+      <c r="J125" s="9">
         <v>69696471</v>
       </c>
-      <c r="F125" s="9">
+      <c r="K125" s="9">
         <v>79558192</v>
       </c>
-      <c r="G125" s="9">
+      <c r="L125" s="9">
         <v>112436931</v>
       </c>
-      <c r="H125" s="9">
+      <c r="M125" s="9">
         <v>138766990</v>
       </c>
-      <c r="I125" s="9">
+      <c r="N125" s="9">
         <v>176560327</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11">
+      <c r="E126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" s="11">
+        <v>446442000000</v>
+      </c>
+      <c r="I126" s="11">
+        <v>374028000000</v>
+      </c>
+      <c r="J126" s="11">
         <v>417397000000</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>648625000000</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>519094000000</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>531391000000</v>
       </c>
-      <c r="I126" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N126" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9">
+      <c r="E127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" s="9">
+        <v>217435000000</v>
+      </c>
+      <c r="I127" s="9">
+        <v>167175000000</v>
+      </c>
+      <c r="J127" s="9">
         <v>138756000000</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>164387000000</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>132999000000</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>106007000000</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>153396000000</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2948,8 +4308,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2958,8 +4323,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2968,10 +4338,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -2990,8 +4365,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3000,10 +4390,15 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
@@ -3022,10 +4417,25 @@
       <c r="I133" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="9">
+        <v>0</v>
+      </c>
+      <c r="K133" s="9">
+        <v>0</v>
+      </c>
+      <c r="L133" s="9">
+        <v>0</v>
+      </c>
+      <c r="M133" s="9">
+        <v>0</v>
+      </c>
+      <c r="N133" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -3044,10 +4454,25 @@
       <c r="I134" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="11">
+        <v>0</v>
+      </c>
+      <c r="K134" s="11">
+        <v>0</v>
+      </c>
+      <c r="L134" s="11">
+        <v>0</v>
+      </c>
+      <c r="M134" s="11">
+        <v>0</v>
+      </c>
+      <c r="N134" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -3066,10 +4491,25 @@
       <c r="I135" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="9">
+        <v>0</v>
+      </c>
+      <c r="K135" s="9">
+        <v>0</v>
+      </c>
+      <c r="L135" s="9">
+        <v>0</v>
+      </c>
+      <c r="M135" s="9">
+        <v>0</v>
+      </c>
+      <c r="N135" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -3088,10 +4528,25 @@
       <c r="I136" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="11">
+        <v>0</v>
+      </c>
+      <c r="K136" s="11">
+        <v>0</v>
+      </c>
+      <c r="L136" s="11">
+        <v>0</v>
+      </c>
+      <c r="M136" s="11">
+        <v>0</v>
+      </c>
+      <c r="N136" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -3110,76 +4565,136 @@
       <c r="I137" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="9">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9">
+        <v>0</v>
+      </c>
+      <c r="M137" s="9">
+        <v>0</v>
+      </c>
+      <c r="N137" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>13486</v>
+      </c>
+      <c r="F138" s="11">
+        <v>8337</v>
+      </c>
+      <c r="G138" s="11">
+        <v>8969</v>
+      </c>
+      <c r="H138" s="11">
+        <v>13570</v>
+      </c>
+      <c r="I138" s="11">
+        <v>11760</v>
+      </c>
+      <c r="J138" s="11">
         <v>20675</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>23805</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>15751</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>16111</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>16717</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>12063</v>
+      </c>
+      <c r="F139" s="9">
+        <v>15153</v>
+      </c>
+      <c r="G139" s="9">
+        <v>17665</v>
+      </c>
+      <c r="H139" s="9">
+        <v>22456</v>
+      </c>
+      <c r="I139" s="9">
+        <v>24203</v>
+      </c>
+      <c r="J139" s="9">
         <v>26721</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>31922</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>44810</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>47916</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>49347</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11">
+        <v>52428</v>
+      </c>
+      <c r="F140" s="11">
+        <v>48216</v>
+      </c>
+      <c r="G140" s="11">
+        <v>75120</v>
+      </c>
+      <c r="H140" s="11">
+        <v>96677</v>
+      </c>
+      <c r="I140" s="11">
+        <v>97980</v>
+      </c>
+      <c r="J140" s="11">
         <v>63951</v>
       </c>
-      <c r="F140" s="11">
+      <c r="K140" s="11">
         <v>73945</v>
       </c>
-      <c r="G140" s="11">
+      <c r="L140" s="11">
         <v>141876</v>
       </c>
-      <c r="H140" s="11">
+      <c r="M140" s="11">
         <v>108723</v>
       </c>
-      <c r="I140" s="11">
+      <c r="N140" s="11">
         <v>110025</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -3198,52 +4713,97 @@
       <c r="I141" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="9">
+        <v>0</v>
+      </c>
+      <c r="K141" s="9">
+        <v>0</v>
+      </c>
+      <c r="L141" s="9">
+        <v>0</v>
+      </c>
+      <c r="M141" s="9">
+        <v>0</v>
+      </c>
+      <c r="N141" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
+        <v>106644</v>
+      </c>
+      <c r="F142" s="11">
+        <v>114409</v>
+      </c>
+      <c r="G142" s="11">
+        <v>181706</v>
+      </c>
+      <c r="H142" s="11">
+        <v>132878</v>
+      </c>
+      <c r="I142" s="11">
+        <v>148124</v>
+      </c>
+      <c r="J142" s="11">
         <v>182955</v>
       </c>
-      <c r="F142" s="11">
+      <c r="K142" s="11">
         <v>249283</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>190815</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>212208</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>235924</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15">
+        <v>184621</v>
+      </c>
+      <c r="F143" s="15">
+        <v>186115</v>
+      </c>
+      <c r="G143" s="15">
+        <v>283460</v>
+      </c>
+      <c r="H143" s="15">
+        <v>265581</v>
+      </c>
+      <c r="I143" s="15">
+        <v>282067</v>
+      </c>
+      <c r="J143" s="15">
         <v>294302</v>
       </c>
-      <c r="F143" s="15">
+      <c r="K143" s="15">
         <v>378955</v>
       </c>
-      <c r="G143" s="15">
+      <c r="L143" s="15">
         <v>393252</v>
       </c>
-      <c r="H143" s="15">
+      <c r="M143" s="15">
         <v>384958</v>
       </c>
-      <c r="I143" s="15">
+      <c r="N143" s="15">
         <v>412013</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3252,8 +4812,13 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3262,8 +4827,13 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3272,10 +4842,15 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -3284,8 +4859,13 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3294,13 +4874,18 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -3308,123 +4893,128 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
